--- a/LogBox20220513/src/test/java/resources/excelData/logBoxUserAccounts.xlsx
+++ b/LogBox20220513/src/test/java/resources/excelData/logBoxUserAccounts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27823\Documents\EPI-USE Labs\LOGBOX\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LogBoxAutomationProject\LogBoxPremiumAutomation\LogBox20220513\src\test\java\resources\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7540D99-7007-42E4-A074-CC089AE01623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0ECCC9-6F1D-4993-926B-E4D6D9450FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +413,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -432,9 +432,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{124AD088-CEDF-4D59-AF28-57599BE9C04F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/LogBox20220513/src/test/java/resources/excelData/logBoxUserAccounts.xlsx
+++ b/LogBox20220513/src/test/java/resources/excelData/logBoxUserAccounts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LogBoxAutomationProject\LogBoxPremiumAutomation\LogBox20220513\src\test\java\resources\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0ECCC9-6F1D-4993-926B-E4D6D9450FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB88F05-4B7F-4368-9C25-1A8425546ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
